--- a/biology/Zoologie/Cerastes_gasperettii/Cerastes_gasperettii.xlsx
+++ b/biology/Zoologie/Cerastes_gasperettii/Cerastes_gasperettii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cerastes gasperettii est une espèce de serpents de la famille des Viperidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cerastes gasperettii est une espèce de serpents de la famille des Viperidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre aux Émirats arabes unis, en Oman, au Yémen, en Arabie saoudite, en Jordanie, en Israël, en Irak et au Koweït[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre aux Émirats arabes unis, en Oman, au Yémen, en Arabie saoudite, en Jordanie, en Israël, en Irak et au Koweït.
 Sa présence est incertaine en Iran.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cerastes gasperettii atteint en moyenne de 30 à 60 cm, avec un maximum de 85 cm, les femelles étant plus grandes que les mâles.
 </t>
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (25 janvier 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (25 janvier 2014) :
 Cerastes gasperettii gasperettii Leviton &amp; Anderson, 1967
 Cerastes gasperettii mendelssohni Werner &amp; Sivan, 1999</t>
         </is>
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de John Gasperetti (1920-2001)[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de John Gasperetti (1920-2001).
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Leviton &amp; Anderson, 1967 : Survey of the reptiles of the Sheikdom of Abu Dhabi, Arabian Peninsula. Part II. Systematic account of the collection of reptiles made in the Sheikdom of Abu Dhabi by John Gasperetti. Proceedings of the California Academy of Sciences, sér. 4, vol. 35, p. 157-192 (texte intégral)
 Werner, Sivan, Kushnir &amp; Motro, 1999 : A statistical approach to variation in Cerastes (Ophidia: Viperidae), with the description of two endemic subspecies. Kaupia Darmstaedter Beitraege zur Naturgeschichte, no 8, p. 83-97.</t>
